--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.121660191956022</v>
+        <v>0.141183</v>
       </c>
       <c r="N2">
-        <v>0.121660191956022</v>
+        <v>0.423549</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3560479966105798</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3560479966105798</v>
       </c>
       <c r="Q2">
-        <v>23.68048397779674</v>
+        <v>27.592154525187</v>
       </c>
       <c r="R2">
-        <v>23.68048397779674</v>
+        <v>248.329390726683</v>
       </c>
       <c r="S2">
-        <v>0.3112436994033337</v>
+        <v>0.1102232642460727</v>
       </c>
       <c r="T2">
-        <v>0.3112436994033337</v>
+        <v>0.1102232642460727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.121660191956022</v>
+        <v>0.2550053333333333</v>
       </c>
       <c r="N3">
-        <v>0.121660191956022</v>
+        <v>0.7650159999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6430954014176384</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6430954014176384</v>
       </c>
       <c r="Q3">
-        <v>9.704509305667857</v>
+        <v>49.83706651707466</v>
       </c>
       <c r="R3">
-        <v>9.704509305667857</v>
+        <v>448.5335986536719</v>
       </c>
       <c r="S3">
-        <v>0.1275509140785377</v>
+        <v>0.1990857273195629</v>
       </c>
       <c r="T3">
-        <v>0.1275509140785377</v>
+        <v>0.1990857273195628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.218964272126</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>162.218964272126</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.2593941133415505</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.2593941133415505</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.121660191956022</v>
+        <v>0.0003396666666666667</v>
       </c>
       <c r="N4">
-        <v>0.121660191956022</v>
+        <v>0.001019</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0008566019717817321</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.000856601971781732</v>
       </c>
       <c r="Q4">
-        <v>19.73559033225392</v>
+        <v>0.06638288713033333</v>
       </c>
       <c r="R4">
-        <v>19.73559033225392</v>
+        <v>0.5974459841729999</v>
       </c>
       <c r="S4">
-        <v>0.2593941133415505</v>
+        <v>0.0002651818473582704</v>
       </c>
       <c r="T4">
-        <v>0.2593941133415505</v>
+        <v>0.0002651818473582703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>158.632386490809</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H5">
-        <v>158.632386490809</v>
+        <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J5">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.121660191956022</v>
+        <v>0.141183</v>
       </c>
       <c r="N5">
-        <v>0.121660191956022</v>
+        <v>0.423549</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.3560479966105798</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.3560479966105798</v>
       </c>
       <c r="Q5">
-        <v>19.2992465909137</v>
+        <v>11.270251013238</v>
       </c>
       <c r="R5">
-        <v>19.2992465909137</v>
+        <v>101.432259119142</v>
       </c>
       <c r="S5">
-        <v>0.2536590430451174</v>
+        <v>0.04502163303042322</v>
       </c>
       <c r="T5">
-        <v>0.2536590430451174</v>
+        <v>0.04502163303042321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>79.82725266666667</v>
+      </c>
+      <c r="H6">
+        <v>239.481758</v>
+      </c>
+      <c r="I6">
+        <v>0.1264482133280045</v>
+      </c>
+      <c r="J6">
+        <v>0.1264482133280045</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2550053333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.7650159999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="P6">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="Q6">
+        <v>20.35637517534756</v>
+      </c>
+      <c r="R6">
+        <v>183.207376578128</v>
+      </c>
+      <c r="S6">
+        <v>0.08131826450871622</v>
+      </c>
+      <c r="T6">
+        <v>0.08131826450871621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>79.82725266666667</v>
+      </c>
+      <c r="H7">
+        <v>239.481758</v>
+      </c>
+      <c r="I7">
+        <v>0.1264482133280045</v>
+      </c>
+      <c r="J7">
+        <v>0.1264482133280045</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.0003396666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.001019</v>
+      </c>
+      <c r="O7">
+        <v>0.0008566019717817321</v>
+      </c>
+      <c r="P7">
+        <v>0.000856601971781732</v>
+      </c>
+      <c r="Q7">
+        <v>0.02711465682244444</v>
+      </c>
+      <c r="R7">
+        <v>0.244031911402</v>
+      </c>
+      <c r="S7">
+        <v>0.0001083157888650458</v>
+      </c>
+      <c r="T7">
+        <v>0.0001083157888650457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>30.1132697218668</v>
-      </c>
-      <c r="H6">
-        <v>30.1132697218668</v>
-      </c>
-      <c r="I6">
-        <v>0.04815223013146062</v>
-      </c>
-      <c r="J6">
-        <v>0.04815223013146062</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.121660191956022</v>
-      </c>
-      <c r="N6">
-        <v>0.121660191956022</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>3.66358617478578</v>
-      </c>
-      <c r="R6">
-        <v>3.66358617478578</v>
-      </c>
-      <c r="S6">
-        <v>0.04815223013146062</v>
-      </c>
-      <c r="T6">
-        <v>0.04815223013146062</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H8">
+        <v>487.534973</v>
+      </c>
+      <c r="I8">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J8">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.141183</v>
+      </c>
+      <c r="N8">
+        <v>0.423549</v>
+      </c>
+      <c r="O8">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="P8">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="Q8">
+        <v>22.943883364353</v>
+      </c>
+      <c r="R8">
+        <v>206.494950279177</v>
+      </c>
+      <c r="S8">
+        <v>0.09165466642308216</v>
+      </c>
+      <c r="T8">
+        <v>0.09165466642308216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H9">
+        <v>487.534973</v>
+      </c>
+      <c r="I9">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J9">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2550053333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.7650159999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="P9">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="Q9">
+        <v>41.44133943384088</v>
+      </c>
+      <c r="R9">
+        <v>372.9720549045679</v>
+      </c>
+      <c r="S9">
+        <v>0.1655470471853803</v>
+      </c>
+      <c r="T9">
+        <v>0.1655470471853803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H10">
+        <v>487.534973</v>
+      </c>
+      <c r="I10">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J10">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.0003396666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.001019</v>
+      </c>
+      <c r="O10">
+        <v>0.0008566019717817321</v>
+      </c>
+      <c r="P10">
+        <v>0.000856601971781732</v>
+      </c>
+      <c r="Q10">
+        <v>0.05519979305411111</v>
+      </c>
+      <c r="R10">
+        <v>0.496798137487</v>
+      </c>
+      <c r="S10">
+        <v>0.0002205083829382686</v>
+      </c>
+      <c r="T10">
+        <v>0.0002205083829382686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H11">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J11">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.141183</v>
+      </c>
+      <c r="N11">
+        <v>0.423549</v>
+      </c>
+      <c r="O11">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="P11">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="Q11">
+        <v>22.559778588564</v>
+      </c>
+      <c r="R11">
+        <v>203.038007297076</v>
+      </c>
+      <c r="S11">
+        <v>0.09012027076139792</v>
+      </c>
+      <c r="T11">
+        <v>0.09012027076139791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H12">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I12">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J12">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2550053333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.7650159999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="P12">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="Q12">
+        <v>40.74756775888712</v>
+      </c>
+      <c r="R12">
+        <v>366.728109829984</v>
+      </c>
+      <c r="S12">
+        <v>0.1627756152341325</v>
+      </c>
+      <c r="T12">
+        <v>0.1627756152341325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H13">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I13">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J13">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.0003396666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.001019</v>
+      </c>
+      <c r="O13">
+        <v>0.0008566019717817321</v>
+      </c>
+      <c r="P13">
+        <v>0.000856601971781732</v>
+      </c>
+      <c r="Q13">
+        <v>0.0542756903728889</v>
+      </c>
+      <c r="R13">
+        <v>0.488481213356</v>
+      </c>
+      <c r="S13">
+        <v>0.0002168168403322036</v>
+      </c>
+      <c r="T13">
+        <v>0.0002168168403322035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H14">
+        <v>101.215736</v>
+      </c>
+      <c r="I14">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J14">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.141183</v>
+      </c>
+      <c r="N14">
+        <v>0.423549</v>
+      </c>
+      <c r="O14">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="P14">
+        <v>0.3560479966105798</v>
+      </c>
+      <c r="Q14">
+        <v>4.763313751896</v>
+      </c>
+      <c r="R14">
+        <v>42.869823767064</v>
+      </c>
+      <c r="S14">
+        <v>0.01902816214960388</v>
+      </c>
+      <c r="T14">
+        <v>0.01902816214960388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H15">
+        <v>101.215736</v>
+      </c>
+      <c r="I15">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J15">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2550053333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.7650159999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="P15">
+        <v>0.6430954014176384</v>
+      </c>
+      <c r="Q15">
+        <v>8.60351749908622</v>
+      </c>
+      <c r="R15">
+        <v>77.43165749177598</v>
+      </c>
+      <c r="S15">
+        <v>0.03436874716984661</v>
+      </c>
+      <c r="T15">
+        <v>0.03436874716984661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H16">
+        <v>101.215736</v>
+      </c>
+      <c r="I16">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J16">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0003396666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.001019</v>
+      </c>
+      <c r="O16">
+        <v>0.0008566019717817321</v>
+      </c>
+      <c r="P16">
+        <v>0.000856601971781732</v>
+      </c>
+      <c r="Q16">
+        <v>0.01145987055377778</v>
+      </c>
+      <c r="R16">
+        <v>0.103138834984</v>
+      </c>
+      <c r="S16">
+        <v>4.577911228794391E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.577911228794389E-05</v>
       </c>
     </row>
   </sheetData>
